--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl2-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl2-Ccr5.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.856666</v>
+        <v>4.232924</v>
       </c>
       <c r="H2">
-        <v>110.569998</v>
+        <v>12.698772</v>
       </c>
       <c r="I2">
-        <v>0.1389359711410444</v>
+        <v>0.05792409824508498</v>
       </c>
       <c r="J2">
-        <v>0.1389359711410443</v>
+        <v>0.05792409824508497</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.021407666666667</v>
+        <v>0.022105</v>
       </c>
       <c r="N2">
-        <v>12.064223</v>
+        <v>0.066315</v>
       </c>
       <c r="O2">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989593</v>
       </c>
       <c r="P2">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989592</v>
       </c>
       <c r="Q2">
-        <v>148.2156792201727</v>
+        <v>0.09356878501999999</v>
       </c>
       <c r="R2">
-        <v>1333.941112981554</v>
+        <v>0.84211906518</v>
       </c>
       <c r="S2">
-        <v>0.00871112182167565</v>
+        <v>4.377455429311344E-05</v>
       </c>
       <c r="T2">
-        <v>0.008711121821675648</v>
+        <v>4.377455429311343E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.856666</v>
+        <v>4.232924</v>
       </c>
       <c r="H3">
-        <v>110.569998</v>
+        <v>12.698772</v>
       </c>
       <c r="I3">
-        <v>0.1389359711410444</v>
+        <v>0.05792409824508498</v>
       </c>
       <c r="J3">
-        <v>0.1389359711410443</v>
+        <v>0.05792409824508497</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.203152</v>
       </c>
       <c r="O3">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="P3">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="Q3">
-        <v>14.78139047041067</v>
+        <v>1.697616992149333</v>
       </c>
       <c r="R3">
-        <v>133.032514233696</v>
+        <v>15.278552929344</v>
       </c>
       <c r="S3">
-        <v>0.000868750821498633</v>
+        <v>0.0007942010487350979</v>
       </c>
       <c r="T3">
-        <v>0.0008687508214986328</v>
+        <v>0.0007942010487350979</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.856666</v>
+        <v>4.232924</v>
       </c>
       <c r="H4">
-        <v>110.569998</v>
+        <v>12.698772</v>
       </c>
       <c r="I4">
-        <v>0.1389359711410444</v>
+        <v>0.05792409824508498</v>
       </c>
       <c r="J4">
-        <v>0.1389359711410443</v>
+        <v>0.05792409824508497</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.71602933333333</v>
+        <v>28.82699233333333</v>
       </c>
       <c r="N4">
-        <v>179.148088</v>
+        <v>86.480977</v>
       </c>
       <c r="O4">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006099</v>
       </c>
       <c r="P4">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006098</v>
       </c>
       <c r="Q4">
-        <v>2200.933747984869</v>
+        <v>122.0224676955827</v>
       </c>
       <c r="R4">
-        <v>19808.40373186382</v>
+        <v>1098.202209260244</v>
       </c>
       <c r="S4">
-        <v>0.1293560984978701</v>
+        <v>0.05708612264205677</v>
       </c>
       <c r="T4">
-        <v>0.1293560984978701</v>
+        <v>0.05708612264205676</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>71.338966</v>
       </c>
       <c r="I5">
-        <v>0.089640487480229</v>
+        <v>0.3254051080913003</v>
       </c>
       <c r="J5">
-        <v>0.08964048748022899</v>
+        <v>0.3254051080913002</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>4.021407666666667</v>
+        <v>0.022105</v>
       </c>
       <c r="N5">
-        <v>12.064223</v>
+        <v>0.066315</v>
       </c>
       <c r="O5">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989593</v>
       </c>
       <c r="P5">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989592</v>
       </c>
       <c r="Q5">
-        <v>95.62768826815756</v>
+        <v>0.5256492811433333</v>
       </c>
       <c r="R5">
-        <v>860.6491944134179</v>
+        <v>4.73084353029</v>
       </c>
       <c r="S5">
-        <v>0.005620353031555425</v>
+        <v>0.0002459160177363272</v>
       </c>
       <c r="T5">
-        <v>0.005620353031555424</v>
+        <v>0.0002459160177363271</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>71.338966</v>
       </c>
       <c r="I6">
-        <v>0.089640487480229</v>
+        <v>0.3254051080913003</v>
       </c>
       <c r="J6">
-        <v>0.08964048748022899</v>
+        <v>0.3254051080913002</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,10 +809,10 @@
         <v>1.203152</v>
       </c>
       <c r="O6">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="P6">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="Q6">
         <v>9.536846624536889</v>
@@ -821,10 +821,10 @@
         <v>85.831619620832</v>
       </c>
       <c r="S6">
-        <v>0.000560511770266678</v>
+        <v>0.004461650434615056</v>
       </c>
       <c r="T6">
-        <v>0.000560511770266678</v>
+        <v>0.004461650434615055</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>71.338966</v>
       </c>
       <c r="I7">
-        <v>0.089640487480229</v>
+        <v>0.3254051080913003</v>
       </c>
       <c r="J7">
-        <v>0.08964048748022899</v>
+        <v>0.3254051080913002</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.71602933333333</v>
+        <v>28.82699233333333</v>
       </c>
       <c r="N7">
-        <v>179.148088</v>
+        <v>86.480977</v>
       </c>
       <c r="O7">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006099</v>
       </c>
       <c r="P7">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006098</v>
       </c>
       <c r="Q7">
-        <v>1420.02659542189</v>
+        <v>685.4959419833091</v>
       </c>
       <c r="R7">
-        <v>12780.23935879701</v>
+        <v>6169.463477849782</v>
       </c>
       <c r="S7">
-        <v>0.0834596226784069</v>
+        <v>0.3206975416389489</v>
       </c>
       <c r="T7">
-        <v>0.08345962267840688</v>
+        <v>0.3206975416389488</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.456122</v>
+        <v>7.006365333333332</v>
       </c>
       <c r="H8">
-        <v>16.368366</v>
+        <v>21.019096</v>
       </c>
       <c r="I8">
-        <v>0.02056755781258178</v>
+        <v>0.09587637148905993</v>
       </c>
       <c r="J8">
-        <v>0.02056755781258178</v>
+        <v>0.09587637148905992</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>4.021407666666667</v>
+        <v>0.022105</v>
       </c>
       <c r="N8">
-        <v>12.064223</v>
+        <v>0.066315</v>
       </c>
       <c r="O8">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989593</v>
       </c>
       <c r="P8">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989592</v>
       </c>
       <c r="Q8">
-        <v>21.94129084106866</v>
+        <v>0.1548757056933333</v>
       </c>
       <c r="R8">
-        <v>197.471617569618</v>
+        <v>1.39388135124</v>
       </c>
       <c r="S8">
-        <v>0.001289561660729828</v>
+        <v>7.245594763368957E-05</v>
       </c>
       <c r="T8">
-        <v>0.001289561660729828</v>
+        <v>7.245594763368956E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.456122</v>
+        <v>7.006365333333332</v>
       </c>
       <c r="H9">
-        <v>16.368366</v>
+        <v>21.019096</v>
       </c>
       <c r="I9">
-        <v>0.02056755781258178</v>
+        <v>0.09587637148905993</v>
       </c>
       <c r="J9">
-        <v>0.02056755781258178</v>
+        <v>0.09587637148905992</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,22 +995,22 @@
         <v>1.203152</v>
       </c>
       <c r="O9">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="P9">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="Q9">
-        <v>2.188181365514667</v>
+        <v>2.809907487843555</v>
       </c>
       <c r="R9">
-        <v>19.693632289632</v>
+        <v>25.289167390592</v>
       </c>
       <c r="S9">
-        <v>0.0001286065991345165</v>
+        <v>0.001314567116148215</v>
       </c>
       <c r="T9">
-        <v>0.0001286065991345165</v>
+        <v>0.001314567116148215</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.456122</v>
+        <v>7.006365333333332</v>
       </c>
       <c r="H10">
-        <v>16.368366</v>
+        <v>21.019096</v>
       </c>
       <c r="I10">
-        <v>0.02056755781258178</v>
+        <v>0.09587637148905993</v>
       </c>
       <c r="J10">
-        <v>0.02056755781258178</v>
+        <v>0.09587637148905992</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.71602933333333</v>
+        <v>28.82699233333333</v>
       </c>
       <c r="N10">
-        <v>179.148088</v>
+        <v>86.480977</v>
       </c>
       <c r="O10">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006099</v>
       </c>
       <c r="P10">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006098</v>
       </c>
       <c r="Q10">
-        <v>325.8179413982453</v>
+        <v>201.9724397485324</v>
       </c>
       <c r="R10">
-        <v>2932.361472584208</v>
+        <v>1817.751957736792</v>
       </c>
       <c r="S10">
-        <v>0.01914938955271744</v>
+        <v>0.09448934842527804</v>
       </c>
       <c r="T10">
-        <v>0.01914938955271743</v>
+        <v>0.09448934842527801</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>199.1856246666667</v>
+        <v>38.058136</v>
       </c>
       <c r="H11">
-        <v>597.556874</v>
+        <v>114.174408</v>
       </c>
       <c r="I11">
-        <v>0.7508559835661449</v>
+        <v>0.5207944221745548</v>
       </c>
       <c r="J11">
-        <v>0.7508559835661449</v>
+        <v>0.5207944221745548</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>4.021407666666667</v>
+        <v>0.022105</v>
       </c>
       <c r="N11">
-        <v>12.064223</v>
+        <v>0.066315</v>
       </c>
       <c r="O11">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989593</v>
       </c>
       <c r="P11">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989592</v>
       </c>
       <c r="Q11">
-        <v>801.0065981243224</v>
+        <v>0.84127509628</v>
       </c>
       <c r="R11">
-        <v>7209.059383118902</v>
+        <v>7.57147586652</v>
       </c>
       <c r="S11">
-        <v>0.04707778618928515</v>
+        <v>0.0003935761522358292</v>
       </c>
       <c r="T11">
-        <v>0.04707778618928515</v>
+        <v>0.0003935761522358292</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>199.1856246666667</v>
+        <v>38.058136</v>
       </c>
       <c r="H12">
-        <v>597.556874</v>
+        <v>114.174408</v>
       </c>
       <c r="I12">
-        <v>0.7508559835661449</v>
+        <v>0.5207944221745548</v>
       </c>
       <c r="J12">
-        <v>0.7508559835661449</v>
+        <v>0.5207944221745548</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,22 +1181,22 @@
         <v>1.203152</v>
       </c>
       <c r="O12">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="P12">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="Q12">
-        <v>79.8835275629831</v>
+        <v>15.26324081489066</v>
       </c>
       <c r="R12">
-        <v>718.951748066848</v>
+        <v>137.369167334016</v>
       </c>
       <c r="S12">
-        <v>0.004695017044132126</v>
+        <v>0.007140645927992797</v>
       </c>
       <c r="T12">
-        <v>0.004695017044132126</v>
+        <v>0.007140645927992797</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>199.1856246666667</v>
+        <v>38.058136</v>
       </c>
       <c r="H13">
-        <v>597.556874</v>
+        <v>114.174408</v>
       </c>
       <c r="I13">
-        <v>0.7508559835661449</v>
+        <v>0.5207944221745548</v>
       </c>
       <c r="J13">
-        <v>0.7508559835661449</v>
+        <v>0.5207944221745548</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>59.71602933333333</v>
+        <v>28.82699233333333</v>
       </c>
       <c r="N13">
-        <v>179.148088</v>
+        <v>86.480977</v>
       </c>
       <c r="O13">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006099</v>
       </c>
       <c r="P13">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006098</v>
       </c>
       <c r="Q13">
-        <v>11894.57460537299</v>
+        <v>1097.101594692957</v>
       </c>
       <c r="R13">
-        <v>107051.1714483569</v>
+        <v>9873.914352236616</v>
       </c>
       <c r="S13">
-        <v>0.6990831803327276</v>
+        <v>0.5132602000943263</v>
       </c>
       <c r="T13">
-        <v>0.6990831803327276</v>
+        <v>0.5132602000943262</v>
       </c>
     </row>
   </sheetData>
